--- a/Money Manager Python/goal.xlsx
+++ b/Money Manager Python/goal.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tour to Cox's Bazar</t>
+          <t>Purchasing bike</t>
         </is>
       </c>
     </row>
